--- a/db/companies-1.xlsx
+++ b/db/companies-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_ERP/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_POS/POS/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3DDFA10050397D6A206102AB88025270B7525614" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB5EC05-CFE2-4434-9216-57F1B899625C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_3DDFA10050397D6A206102AB88025270B7525614" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C71B16-075D-431F-BFF0-D17C0E79E2B1}"/>
   <bookViews>
-    <workbookView xWindow="43215" yWindow="375" windowWidth="25785" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,12 +430,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.92578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/db/companies-1.xlsx
+++ b/db/companies-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_POS/POS/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3DDFA10050397D6A206102AB88025270B7525614" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C71B16-075D-431F-BFF0-D17C0E79E2B1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_226BC21B50397D6A206102AB88722A35A4AAD3D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C99B009A-5756-439A-9DCA-40204F5F2B12}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44415" yWindow="1440" windowWidth="18615" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>email</t>
   </si>
@@ -31,25 +31,76 @@
     <t>npwp</t>
   </si>
   <si>
+    <t>companyAddress1</t>
+  </si>
+  <si>
+    <t>companyAddress2</t>
+  </si>
+  <si>
+    <t>companyContactNumber1</t>
+  </si>
+  <si>
+    <t>companyContactNumber2</t>
+  </si>
+  <si>
     <t>uuid</t>
   </si>
   <si>
     <t>employees</t>
   </si>
   <si>
-    <t>yusuf.adisaputro@hotmail.com</t>
-  </si>
-  <si>
-    <t>qweqweqweqweqweqweqwe</t>
-  </si>
-  <si>
-    <t>zxczxcxzcxzczxczxc</t>
-  </si>
-  <si>
-    <t>a738f9c7-716c-4b0c-9b7d-bb30d686d6fa</t>
-  </si>
-  <si>
-    <t>[{"email":"yusuf.adisaputro@hotmail.com","uam":"admin"}]</t>
+    <t>lastUpdated</t>
+  </si>
+  <si>
+    <t>isDeleted</t>
+  </si>
+  <si>
+    <t>123@asd.com</t>
+  </si>
+  <si>
+    <t>asdasdasdasd</t>
+  </si>
+  <si>
+    <t>asdasddas</t>
+  </si>
+  <si>
+    <t>2133123123123</t>
+  </si>
+  <si>
+    <t>12312312312312</t>
+  </si>
+  <si>
+    <t>1231231312312</t>
+  </si>
+  <si>
+    <t>12313123112312312</t>
+  </si>
+  <si>
+    <t>dc95b2ff-3b3f-4ffe-ab94-5e47b3ff5abc</t>
+  </si>
+  <si>
+    <t>[{"email":"123@asd.com","uam":"admin"}]</t>
+  </si>
+  <si>
+    <t>qweqweqweqwe</t>
+  </si>
+  <si>
+    <t>asdasdsadas</t>
+  </si>
+  <si>
+    <t>asdasdasdasda</t>
+  </si>
+  <si>
+    <t>asdasdasdasdas</t>
+  </si>
+  <si>
+    <t>aasdasdasdas</t>
+  </si>
+  <si>
+    <t>asasdasdasd</t>
+  </si>
+  <si>
+    <t>8af0acd0-1063-4743-8e1d-d59ae229f3ed</t>
   </si>
 </sst>
 </file>
@@ -85,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,20 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.92578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,28 +505,99 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>45303.63320971065</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45303.646633402779</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>